--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjaybasu/Box/Analytics Team/Research/Research projects/One medical/E&amp;M exclusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06798A59-3BB5-854F-A9CD-349358C0DA68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56C7026-D58C-0E40-80C8-8BC7197236E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35960" yWindow="-7000" windowWidth="28800" windowHeight="17540" xr2:uid="{922A7465-6850-D143-BC7B-C5038204CF4E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{922A7465-6850-D143-BC7B-C5038204CF4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="8" r:id="rId1"/>
     <sheet name="Table2" sheetId="9" r:id="rId2"/>
-    <sheet name="eTable4" sheetId="2" r:id="rId3"/>
-    <sheet name="eTable5" sheetId="3" r:id="rId4"/>
-    <sheet name="eTable6" sheetId="4" r:id="rId5"/>
-    <sheet name="eTable7" sheetId="5" r:id="rId6"/>
-    <sheet name="eTable8" sheetId="6" r:id="rId7"/>
-    <sheet name="eTable9" sheetId="7" r:id="rId8"/>
-    <sheet name="eTable10" sheetId="17" r:id="rId9"/>
-    <sheet name="eTable11" sheetId="13" r:id="rId10"/>
-    <sheet name="eTable12" sheetId="10" r:id="rId11"/>
-    <sheet name="eTable13" sheetId="11" r:id="rId12"/>
-    <sheet name="eTable14" sheetId="12" r:id="rId13"/>
-    <sheet name="fig inputs" sheetId="18" r:id="rId14"/>
+    <sheet name="eTable4" sheetId="19" r:id="rId3"/>
+    <sheet name="eTable5" sheetId="2" r:id="rId4"/>
+    <sheet name="eTable6" sheetId="3" r:id="rId5"/>
+    <sheet name="eTable7" sheetId="4" r:id="rId6"/>
+    <sheet name="eTable8" sheetId="5" r:id="rId7"/>
+    <sheet name="eTable9" sheetId="6" r:id="rId8"/>
+    <sheet name="eTable10" sheetId="7" r:id="rId9"/>
+    <sheet name="eTable11" sheetId="17" r:id="rId10"/>
+    <sheet name="eTable12" sheetId="13" r:id="rId11"/>
+    <sheet name="eTable13" sheetId="10" r:id="rId12"/>
+    <sheet name="eTable14" sheetId="11" r:id="rId13"/>
+    <sheet name="eTable15" sheetId="12" r:id="rId14"/>
+    <sheet name="fig inputs" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="1117">
   <si>
     <t>Total Spend</t>
   </si>
@@ -6009,6 +6010,237 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>Stratified by ctr_flag</t>
+  </si>
+  <si>
+    <t>0.097 (0.212)</t>
+  </si>
+  <si>
+    <t>0.048 (0.137)</t>
+  </si>
+  <si>
+    <t>30.7 (8.4)</t>
+  </si>
+  <si>
+    <t>30.4 (8.5)</t>
+  </si>
+  <si>
+    <t>0.0 (0.1)</t>
+  </si>
+  <si>
+    <t>34.4 (13.4)</t>
+  </si>
+  <si>
+    <t>32.0 (14.0)</t>
+  </si>
+  <si>
+    <t>312.3 (699.2)</t>
+  </si>
+  <si>
+    <t>136.4 (241.9)</t>
+  </si>
+  <si>
+    <t>33.1 (204.8)</t>
+  </si>
+  <si>
+    <t>10.6 (39.7)</t>
+  </si>
+  <si>
+    <t>43.5 (183.3)</t>
+  </si>
+  <si>
+    <t>1.6 (14.9)</t>
+  </si>
+  <si>
+    <t>7.6 (83.5)</t>
+  </si>
+  <si>
+    <t>28.8 (26.7)</t>
+  </si>
+  <si>
+    <t>25.6 (41.6)</t>
+  </si>
+  <si>
+    <t>3.8 (6.9)</t>
+  </si>
+  <si>
+    <t>1.5 (5.5)</t>
+  </si>
+  <si>
+    <t>6.4 (45.0)</t>
+  </si>
+  <si>
+    <t>7.3 (27.2)</t>
+  </si>
+  <si>
+    <t>7.0 (24.6)</t>
+  </si>
+  <si>
+    <t>15.8 (70.3)</t>
+  </si>
+  <si>
+    <t>9.4 (122.6)</t>
+  </si>
+  <si>
+    <t>4.7 (11.3)</t>
+  </si>
+  <si>
+    <t>24.6 (114.9)</t>
+  </si>
+  <si>
+    <t>2.8 (19.0)</t>
+  </si>
+  <si>
+    <t>1.2 (22.2)</t>
+  </si>
+  <si>
+    <t>0.0 (0.0)</t>
+  </si>
+  <si>
+    <t>10.1 (20.0)</t>
+  </si>
+  <si>
+    <t>2.1 (4.2)</t>
+  </si>
+  <si>
+    <t>8.9 (37.3)</t>
+  </si>
+  <si>
+    <t>2.7 (35.5)</t>
+  </si>
+  <si>
+    <t>99.8 (317.4)</t>
+  </si>
+  <si>
+    <t>5.1 (49.7)</t>
+  </si>
+  <si>
+    <t>6.2 (47.1)</t>
+  </si>
+  <si>
+    <t>0.0 (1.3)</t>
+  </si>
+  <si>
+    <t>179.8 (160.6)</t>
+  </si>
+  <si>
+    <t>147.1 (236.2)</t>
+  </si>
+  <si>
+    <t>30.2 (47.4)</t>
+  </si>
+  <si>
+    <t>10.8 (34.0)</t>
+  </si>
+  <si>
+    <t>38.1 (236.2)</t>
+  </si>
+  <si>
+    <t>44.1 (165.4)</t>
+  </si>
+  <si>
+    <t>154.8 (585.0)</t>
+  </si>
+  <si>
+    <t>224.1 (1011.1)</t>
+  </si>
+  <si>
+    <t>76.1 (175.1)</t>
+  </si>
+  <si>
+    <t>62.4 (127.0)</t>
+  </si>
+  <si>
+    <t>44.0 (123.8)</t>
+  </si>
+  <si>
+    <t>9.5 (40.1)</t>
+  </si>
+  <si>
+    <t>0.1 (1.5)</t>
+  </si>
+  <si>
+    <t>444.3 (556.8)</t>
+  </si>
+  <si>
+    <t>137.4 (355.1)</t>
+  </si>
+  <si>
+    <t>52.3 (112.5)</t>
+  </si>
+  <si>
+    <t>11.7 (52.2)</t>
+  </si>
+  <si>
+    <t>381.1 (227.1)</t>
+  </si>
+  <si>
+    <t>716.5 (519.9)</t>
+  </si>
+  <si>
+    <t>2643.9 (3401.6)</t>
+  </si>
+  <si>
+    <t>5596.3 (4203.4)</t>
+  </si>
+  <si>
+    <t>162.6 (36.6)</t>
+  </si>
+  <si>
+    <t>178.7 (40.7)</t>
+  </si>
+  <si>
+    <t>129.2 (51.1)</t>
+  </si>
+  <si>
+    <t>145.6 (54.1)</t>
+  </si>
+  <si>
+    <t>146.8 (226.4)</t>
+  </si>
+  <si>
+    <t>122.5 (89.2)</t>
+  </si>
+  <si>
+    <t>67.3 (70.6)</t>
+  </si>
+  <si>
+    <t>78.2 (55.8)</t>
+  </si>
+  <si>
+    <t>64.2 (107.7)</t>
+  </si>
+  <si>
+    <t>72.4 (105.9)</t>
+  </si>
+  <si>
+    <t>336.8 (1221.9)</t>
+  </si>
+  <si>
+    <t>327.4 (440.4)</t>
+  </si>
+  <si>
+    <t>3993.6 (5554.2)</t>
+  </si>
+  <si>
+    <t>3949.9 (7345.2)</t>
+  </si>
+  <si>
+    <t>27.5 (32.8)</t>
+  </si>
+  <si>
+    <t>21.3 (19.8)</t>
+  </si>
+  <si>
+    <t>114.8 (187.5)</t>
+  </si>
+  <si>
+    <t>117.0 (135.0)</t>
+  </si>
+  <si>
+    <t>Primarily center user</t>
   </si>
 </sst>
 </file>
@@ -6121,7 +6353,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6141,8 +6373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -6150,6 +6380,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -6468,7 +6701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91045968-F35C-A545-B8C9-7EDC9D2BE2B9}">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -8326,10 +8559,694 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B01DF3-1EFD-2749-82FA-4092770CFB7F}">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>31497</v>
+      </c>
+      <c r="C3">
+        <v>2133</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>952</v>
+      </c>
+      <c r="C8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>953</v>
+      </c>
+      <c r="C12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>954</v>
+      </c>
+      <c r="C13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>955</v>
+      </c>
+      <c r="C15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>956</v>
+      </c>
+      <c r="C17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>957</v>
+      </c>
+      <c r="C19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>958</v>
+      </c>
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>959</v>
+      </c>
+      <c r="C23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D23">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>960</v>
+      </c>
+      <c r="C24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>961</v>
+      </c>
+      <c r="C26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D26">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>962</v>
+      </c>
+      <c r="C27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>963</v>
+      </c>
+      <c r="C28" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>964</v>
+      </c>
+      <c r="C30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>965</v>
+      </c>
+      <c r="C31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D33">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>966</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>967</v>
+      </c>
+      <c r="C35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D35">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D36">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>968</v>
+      </c>
+      <c r="C37" t="s">
+        <v>327</v>
+      </c>
+      <c r="D37">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>969</v>
+      </c>
+      <c r="C38" t="s">
+        <v>328</v>
+      </c>
+      <c r="D38">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>970</v>
+      </c>
+      <c r="C39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D39">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>330</v>
+      </c>
+      <c r="C40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>971</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
+      <c r="D41">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>972</v>
+      </c>
+      <c r="C42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>1677</v>
+      </c>
+      <c r="C48">
+        <v>1677</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>973</v>
+      </c>
+      <c r="C49" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>974</v>
+      </c>
+      <c r="C50" t="s">
+        <v>975</v>
+      </c>
+      <c r="D50">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>976</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>977</v>
+      </c>
+      <c r="C52" t="s">
+        <v>978</v>
+      </c>
+      <c r="D52">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA63286-F4B3-1842-AED8-1CF370B9D162}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:M12"/>
     </sheetView>
   </sheetViews>
@@ -8757,7 +9674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0ED1B8-D0F7-7B4D-95CE-9943BC9A746F}">
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -9407,7 +10324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E57E661-E730-9F49-978F-6F09CE12979F}">
   <dimension ref="A1:K35"/>
   <sheetViews>
@@ -9971,7 +10888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686244FE-A702-8146-B863-005791A595D6}">
   <dimension ref="A1:K35"/>
   <sheetViews>
@@ -10535,7 +11452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A27DB87-37CC-FD4A-9169-2E5455BCD086}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -10552,40 +11469,40 @@
       <c r="A1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="21">
+      <c r="B1" s="19">
         <v>-26.8</v>
       </c>
-      <c r="C1" s="21">
+      <c r="C1" s="19">
         <v>-35.1</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="19">
         <v>-16.100000000000001</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="19">
         <v>48.3</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="19">
         <v>-57.5</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="19">
         <v>3.8</v>
       </c>
-      <c r="H1" s="21">
+      <c r="H1" s="19">
         <v>2.4</v>
       </c>
-      <c r="I1" s="21">
+      <c r="I1" s="19">
         <v>-33.799999999999997</v>
       </c>
-      <c r="J1" s="21">
+      <c r="J1" s="19">
         <v>-29.3</v>
       </c>
-      <c r="K1" s="21">
+      <c r="K1" s="19">
         <v>-48.6</v>
       </c>
-      <c r="L1" s="21">
+      <c r="L1" s="19">
         <v>-30.1</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="19">
         <v>-39.5</v>
       </c>
     </row>
@@ -10719,34 +11636,34 @@
       <c r="A6" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>-2.4</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>-0.6</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>-2.5</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>-5.8</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>-0.1</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <v>-4.2</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="22">
         <v>-6.6</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
         <v>-7</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="22">
         <v>-3.2</v>
       </c>
     </row>
@@ -10860,34 +11777,34 @@
       <c r="A11" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>213.6</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <v>25</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>11.8</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <v>1</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <v>43.1</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="22">
         <v>12.2</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>-19.7</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="19">
         <v>7.2</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="22">
         <v>-15.9</v>
       </c>
     </row>
@@ -12049,11 +12966,615 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462B1D87-D81F-8E4A-B817-4537D926CF94}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>923</v>
+      </c>
+      <c r="C3">
+        <v>661</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D4" s="28">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>20.5</v>
+      </c>
+      <c r="C5">
+        <v>12.6</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D14" s="28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D16" s="28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D18" s="28">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D19" s="28">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D22" s="28">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D23" s="28">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D24" s="28">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D25" s="28">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D26" s="28">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D27" s="28">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D28" s="28">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D29" s="28">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D30" s="28">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D31" s="28">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D32" s="28">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D33" s="28">
+        <v>0.77200000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D34" s="28">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D35" s="28">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D36" s="28">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D37" s="28">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D38" s="28">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D39" s="28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D40" s="28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D41" s="28">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D42" s="28">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DFF4FE-D5CA-9647-98FC-6A082078BC06}">
   <dimension ref="A1:AF54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12098,20 +13619,20 @@
       </c>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
     </row>
     <row r="2" spans="1:32" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -13023,40 +14544,40 @@
       <c r="AF27" s="4"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="19" t="s">
         <v>11</v>
       </c>
       <c r="S28" s="1"/>
@@ -13065,40 +14586,40 @@
       <c r="A29" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="19">
         <v>-26.8</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <v>-35.1</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <v>-16.100000000000001</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>48.3</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <v>-57.5</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="19">
         <v>3.8</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="19">
         <v>2.4</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="19">
         <v>-33.799999999999997</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="19">
         <v>-29.3</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="19">
         <v>-48.6</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="19">
         <v>-30.1</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="19">
         <v>-39.5</v>
       </c>
       <c r="S29" s="2"/>
@@ -13106,51 +14627,51 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <f>AVERAGE(B33:B34)</f>
         <v>412.35</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="20">
         <f t="shared" ref="C30:M30" si="0">AVERAGE(C33:C34)</f>
         <v>43.55</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="20">
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="20">
         <f t="shared" si="0"/>
         <v>15.100000000000001</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="20">
         <f t="shared" si="0"/>
         <v>28.85</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="20">
         <f t="shared" si="0"/>
         <v>7.45</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="20">
         <f t="shared" si="0"/>
         <v>8.4499999999999993</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="20">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="20">
         <f t="shared" si="0"/>
         <v>10.65</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="20">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="20">
         <f t="shared" si="0"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -13159,69 +14680,69 @@
       <c r="A31" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <f>B29/100*B30</f>
         <v>-110.50980000000001</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="21">
         <f t="shared" ref="C31:M31" si="1">C29/100*C30</f>
         <v>-15.286050000000001</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="21">
         <f t="shared" si="1"/>
         <v>-5.0715000000000003</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="21">
         <f t="shared" si="1"/>
         <v>7.2933000000000003</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="21">
         <f t="shared" si="1"/>
         <v>-16.588750000000001</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="21">
         <f t="shared" si="1"/>
         <v>0.28310000000000002</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="21">
         <f t="shared" si="1"/>
         <v>0.20279999999999998</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="21">
         <f t="shared" si="1"/>
         <v>-4.2249999999999996</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="21">
         <f t="shared" si="1"/>
         <v>-3.1204499999999999</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="21">
         <f t="shared" si="1"/>
         <v>-19.196999999999999</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="21">
         <f t="shared" si="1"/>
         <v>-3.5217000000000001</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="21">
         <f t="shared" si="1"/>
         <v>-4.3450000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B33" s="18">
@@ -13337,19 +14858,19 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
@@ -13423,7 +14944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFA1F2E-BB38-454E-9198-336032EF18EE}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
@@ -13465,18 +14986,18 @@
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
     </row>
     <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -13959,181 +15480,181 @@
     <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="24">
+      <c r="B26" s="22">
         <v>-2.4</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <v>-0.6</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="22">
         <v>-2.5</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="22">
         <v>-5.8</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>-0.1</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="22">
         <v>-4.2</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="22">
         <v>-6.6</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="22">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="22">
         <v>-7</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="22">
         <v>-3.2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <f t="shared" ref="B27:C27" si="0">AVERAGE(B31:B32)</f>
         <v>78.25</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <f t="shared" si="0"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="24">
         <f>AVERAGE(D31:D32)</f>
         <v>196.9</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="24">
         <f t="shared" ref="E27:K27" si="1">AVERAGE(E31:E32)</f>
         <v>61.85</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f t="shared" si="1"/>
         <v>40.599999999999994</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="24">
         <f t="shared" si="1"/>
         <v>279.35000000000002</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="24">
         <f t="shared" si="1"/>
         <v>124.5</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="24">
         <f t="shared" si="1"/>
         <v>61.2</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="24">
         <f t="shared" si="1"/>
         <v>431.05</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="24">
         <f t="shared" si="1"/>
         <v>57.650000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="27">
+      <c r="B28" s="25">
         <f t="shared" ref="B28" si="2">B26/100*B27</f>
         <v>-1.8780000000000001</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="25">
         <f t="shared" ref="C28" si="3">C26/100*C27</f>
         <v>-4.4399999999999995E-2</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="25">
         <f>D26/100*D27</f>
         <v>-4.9225000000000003</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="25">
         <f t="shared" ref="E28:K28" si="4">E26/100*E27</f>
         <v>-3.5872999999999999</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="25">
         <f t="shared" si="4"/>
         <v>-4.0599999999999997E-2</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="25">
         <f t="shared" si="4"/>
         <v>-11.732700000000001</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="25">
         <f t="shared" si="4"/>
         <v>-8.2170000000000005</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="25">
         <f t="shared" si="4"/>
         <v>-2.6928000000000005</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="25">
         <f t="shared" si="4"/>
         <v>-30.173500000000004</v>
       </c>
-      <c r="K28" s="27">
+      <c r="K28" s="25">
         <f t="shared" si="4"/>
         <v>-1.8448000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -14267,17 +15788,17 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
@@ -14335,17 +15856,17 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
@@ -14415,7 +15936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB731D9E-4A45-E649-B218-6727AF052A89}">
   <dimension ref="A1:K52"/>
   <sheetViews>
@@ -14940,168 +16461,168 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <v>213.6</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <v>25</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <v>11.8</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="19">
         <v>1</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="22">
         <v>43.1</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="22">
         <v>12.2</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="22">
         <v>-19.7</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="19">
         <v>7.2</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="22">
         <v>-15.9</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="24">
+      <c r="B22" s="22">
         <f>AVERAGE(B25:B26)</f>
         <v>393.45</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <f t="shared" ref="C22:K22" si="0">AVERAGE(C25:C26)</f>
         <v>2701.45</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="22">
         <f t="shared" si="0"/>
         <v>155.64999999999998</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <f t="shared" si="0"/>
         <v>126.55</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="22">
         <f t="shared" si="0"/>
         <v>137.30000000000001</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="22">
         <f t="shared" si="0"/>
         <v>57.45</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="22">
         <f t="shared" si="0"/>
         <v>60.05</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="22">
         <f t="shared" si="0"/>
         <v>383.35</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="22">
         <f t="shared" si="0"/>
         <v>26.9</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="22">
         <f t="shared" si="0"/>
         <v>129.80000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <f>B21/100*B22</f>
         <v>8.6559000000000008</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <f t="shared" ref="C23:K23" si="1">C21/100*C22</f>
         <v>5770.2972</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <f t="shared" si="1"/>
         <v>38.912499999999994</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="20">
         <f t="shared" si="1"/>
         <v>14.9329</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="20">
         <f t="shared" si="1"/>
         <v>1.3730000000000002</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="20">
         <f t="shared" si="1"/>
         <v>24.760950000000001</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="20">
         <f t="shared" si="1"/>
         <v>7.3260999999999994</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="20">
         <f t="shared" si="1"/>
         <v>-75.519949999999994</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="20">
         <f t="shared" si="1"/>
         <v>1.9368000000000001</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="20">
         <f t="shared" si="1"/>
         <v>-20.638200000000001</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
@@ -15195,17 +16716,17 @@
       <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
@@ -15231,17 +16752,17 @@
       <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -15308,7 +16829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E71E29-36D5-0A47-903C-6BE407411CAD}">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -15895,19 +17416,19 @@
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -15986,7 +17507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB73AB2-268A-3B42-8A2E-420C8CE5E3FF}">
   <dimension ref="A1:K37"/>
   <sheetViews>
@@ -15997,19 +17518,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -16510,17 +18031,17 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -16591,7 +18112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72AC5A4-F4F8-8246-9B43-122E0D11EFC7}">
   <dimension ref="A1:K43"/>
   <sheetViews>
@@ -16602,19 +18123,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -17125,17 +18646,17 @@
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -17151,17 +18672,17 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -17190,17 +18711,17 @@
       <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -17275,688 +18796,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B01DF3-1EFD-2749-82FA-4092770CFB7F}">
-  <dimension ref="A1:E52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>31497</v>
-      </c>
-      <c r="C3">
-        <v>2133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4">
-        <v>0.223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D7">
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>952</v>
-      </c>
-      <c r="C8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D8">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>953</v>
-      </c>
-      <c r="C12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12">
-        <v>0.502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>954</v>
-      </c>
-      <c r="C13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D14">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>955</v>
-      </c>
-      <c r="C15" t="s">
-        <v>296</v>
-      </c>
-      <c r="D15">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" t="s">
-        <v>298</v>
-      </c>
-      <c r="D16">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>956</v>
-      </c>
-      <c r="C17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>957</v>
-      </c>
-      <c r="C19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>958</v>
-      </c>
-      <c r="C20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C21" t="s">
-        <v>305</v>
-      </c>
-      <c r="D21">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>306</v>
-      </c>
-      <c r="C22" t="s">
-        <v>307</v>
-      </c>
-      <c r="D22">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s">
-        <v>959</v>
-      </c>
-      <c r="C23" t="s">
-        <v>308</v>
-      </c>
-      <c r="D23">
-        <v>0.40300000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>960</v>
-      </c>
-      <c r="C24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D24">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>310</v>
-      </c>
-      <c r="C25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D25">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>961</v>
-      </c>
-      <c r="C26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D26">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>962</v>
-      </c>
-      <c r="C27" t="s">
-        <v>313</v>
-      </c>
-      <c r="D27">
-        <v>0.23300000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" t="s">
-        <v>963</v>
-      </c>
-      <c r="C28" t="s">
-        <v>314</v>
-      </c>
-      <c r="D28">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" t="s">
-        <v>316</v>
-      </c>
-      <c r="D29">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>964</v>
-      </c>
-      <c r="C30" t="s">
-        <v>317</v>
-      </c>
-      <c r="D30">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" t="s">
-        <v>965</v>
-      </c>
-      <c r="C31" t="s">
-        <v>318</v>
-      </c>
-      <c r="D31">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>319</v>
-      </c>
-      <c r="C32" t="s">
-        <v>320</v>
-      </c>
-      <c r="D32">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>321</v>
-      </c>
-      <c r="C33" t="s">
-        <v>322</v>
-      </c>
-      <c r="D33">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" t="s">
-        <v>966</v>
-      </c>
-      <c r="C34" t="s">
-        <v>323</v>
-      </c>
-      <c r="D34">
-        <v>0.129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" t="s">
-        <v>967</v>
-      </c>
-      <c r="C35" t="s">
-        <v>324</v>
-      </c>
-      <c r="D35">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" t="s">
-        <v>325</v>
-      </c>
-      <c r="C36" t="s">
-        <v>326</v>
-      </c>
-      <c r="D36">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>968</v>
-      </c>
-      <c r="C37" t="s">
-        <v>327</v>
-      </c>
-      <c r="D37">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" t="s">
-        <v>969</v>
-      </c>
-      <c r="C38" t="s">
-        <v>328</v>
-      </c>
-      <c r="D38">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" t="s">
-        <v>970</v>
-      </c>
-      <c r="C39" t="s">
-        <v>329</v>
-      </c>
-      <c r="D39">
-        <v>0.114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" t="s">
-        <v>330</v>
-      </c>
-      <c r="C40" t="s">
-        <v>236</v>
-      </c>
-      <c r="D40">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" t="s">
-        <v>971</v>
-      </c>
-      <c r="C41" t="s">
-        <v>331</v>
-      </c>
-      <c r="D41">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
-        <v>972</v>
-      </c>
-      <c r="C42" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>1677</v>
-      </c>
-      <c r="C48">
-        <v>1677</v>
-      </c>
-      <c r="E48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>973</v>
-      </c>
-      <c r="C49" t="s">
-        <v>333</v>
-      </c>
-      <c r="D49">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" t="s">
-        <v>974</v>
-      </c>
-      <c r="C50" t="s">
-        <v>975</v>
-      </c>
-      <c r="D50">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" t="s">
-        <v>976</v>
-      </c>
-      <c r="C51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" t="s">
-        <v>977</v>
-      </c>
-      <c r="C52" t="s">
-        <v>978</v>
-      </c>
-      <c r="D52">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>